--- a/Civilworks cost/RADP Preparations/Hoboganj/Revised with appendix/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Hoboganj/Revised with appendix/Projecttion_input.xlsx
@@ -23,13 +23,13 @@
     <sheet name="Sheet1" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hobiganj!$A$1:$K$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hobiganj!$A$1:$K$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Kishoregnj!$A$1:$K$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Netrokona!$A$1:$K$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sunamgonj!$A$1:$J$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Habiganj_Categorical_Projection!$A$1:$P$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">HaorCode!$A$1:$B$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Hobiganj!$A$1:$N$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Hobiganj!$A$1:$N$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Kishoregnj!$A$1:$O$152</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Netrokona!$A$1:$O$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Netrokona_Categorical_Projectio!$A$1:$P$59</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="587">
   <si>
     <t>Package Name</t>
   </si>
@@ -2157,7 +2157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2673,6 +2673,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15334,10 +15337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15640,319 +15643,317 @@
       <c r="N7" s="42"/>
     </row>
     <row r="8" spans="1:14" s="13" customFormat="1" ht="43.15" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9">
-        <v>7.23</v>
-      </c>
-      <c r="E8" s="14">
-        <v>274.56</v>
-      </c>
-      <c r="F8" s="145">
-        <v>1</v>
-      </c>
-      <c r="G8" s="145">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="D8" s="180">
+        <v>5.7</v>
+      </c>
+      <c r="E8" s="190">
+        <v>287.52999999999997</v>
+      </c>
+      <c r="F8" s="176">
+        <v>1</v>
+      </c>
+      <c r="G8" s="176">
+        <v>1</v>
+      </c>
+      <c r="H8" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="139">
+      <c r="J8" s="182">
         <v>10</v>
       </c>
-      <c r="K8" s="140"/>
-      <c r="L8" s="12" t="s">
+      <c r="K8" s="183"/>
+      <c r="L8" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="181" t="s">
         <v>119</v>
       </c>
       <c r="N8" s="42"/>
     </row>
     <row r="9" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="152" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="9">
-        <v>6.8940000000000001</v>
-      </c>
-      <c r="E9" s="14">
-        <v>225.46</v>
-      </c>
-      <c r="F9" s="145">
-        <v>1</v>
-      </c>
-      <c r="G9" s="145">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="D9" s="180">
+        <v>16.02</v>
+      </c>
+      <c r="E9" s="190">
+        <v>377.59</v>
+      </c>
+      <c r="F9" s="176">
+        <v>1</v>
+      </c>
+      <c r="G9" s="176">
+        <v>1</v>
+      </c>
+      <c r="H9" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="139">
+      <c r="J9" s="182">
         <v>10</v>
       </c>
-      <c r="K9" s="140"/>
-      <c r="L9" s="12" t="s">
+      <c r="K9" s="183"/>
+      <c r="L9" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="181" t="s">
         <v>119</v>
       </c>
       <c r="N9" s="42"/>
     </row>
     <row r="10" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="152" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9">
-        <v>16.02</v>
-      </c>
-      <c r="E10" s="14">
-        <v>318.42</v>
-      </c>
-      <c r="F10" s="145">
-        <v>1</v>
-      </c>
-      <c r="G10" s="145">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="D10" s="180">
+        <v>9.42</v>
+      </c>
+      <c r="E10" s="190">
+        <v>304.02999999999997</v>
+      </c>
+      <c r="F10" s="176">
+        <v>1</v>
+      </c>
+      <c r="G10" s="176">
+        <v>1</v>
+      </c>
+      <c r="H10" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="139">
+      <c r="J10" s="182">
         <v>10</v>
       </c>
-      <c r="K10" s="140"/>
-      <c r="L10" s="12" t="s">
+      <c r="K10" s="183"/>
+      <c r="L10" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="181" t="s">
         <v>119</v>
       </c>
       <c r="N10" s="42"/>
     </row>
     <row r="11" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="152" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9">
-        <v>8.36</v>
-      </c>
-      <c r="E11" s="14">
-        <v>149.54</v>
-      </c>
-      <c r="F11" s="145">
-        <v>1</v>
-      </c>
-      <c r="G11" s="145">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="D11" s="180">
+        <v>1.79</v>
+      </c>
+      <c r="E11" s="180">
+        <v>53.047480929999999</v>
+      </c>
+      <c r="F11" s="176">
+        <v>1</v>
+      </c>
+      <c r="G11" s="176">
+        <v>1</v>
+      </c>
+      <c r="H11" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="139">
-        <v>10</v>
-      </c>
-      <c r="K11" s="140"/>
-      <c r="L11" s="12" t="s">
+      <c r="J11" s="182">
+        <v>8</v>
+      </c>
+      <c r="K11" s="183"/>
+      <c r="L11" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="181" t="s">
         <v>119</v>
       </c>
       <c r="N11" s="42"/>
     </row>
     <row r="12" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="9">
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="E12" s="9">
-        <v>132.86610229999999</v>
-      </c>
-      <c r="F12" s="145">
-        <v>0</v>
-      </c>
-      <c r="G12" s="145">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="D12" s="180">
+        <v>2.72</v>
+      </c>
+      <c r="E12" s="180">
+        <v>29.974988280000002</v>
+      </c>
+      <c r="F12" s="176">
+        <v>1</v>
+      </c>
+      <c r="G12" s="176">
+        <v>1</v>
+      </c>
+      <c r="H12" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="139">
+      <c r="J12" s="182">
         <v>8</v>
       </c>
-      <c r="K12" s="140"/>
-      <c r="L12" s="12" t="s">
+      <c r="K12" s="183"/>
+      <c r="L12" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="181" t="s">
         <v>119</v>
       </c>
       <c r="N12" s="42"/>
     </row>
     <row r="13" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1.79</v>
-      </c>
-      <c r="E13" s="9">
-        <v>53.047480929999999</v>
-      </c>
-      <c r="F13" s="145">
-        <v>1</v>
-      </c>
-      <c r="G13" s="145">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="B13" s="152" t="s">
+        <v>583</v>
+      </c>
+      <c r="C13" s="152" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="180">
+        <v>1</v>
+      </c>
+      <c r="E13" s="180">
+        <v>244.2</v>
+      </c>
+      <c r="F13" s="176">
+        <v>0.95</v>
+      </c>
+      <c r="G13" s="176">
+        <v>1</v>
+      </c>
+      <c r="H13" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="139">
-        <v>8</v>
-      </c>
-      <c r="K13" s="140"/>
-      <c r="L13" s="12" t="s">
+      <c r="J13" s="182">
+        <v>5</v>
+      </c>
+      <c r="K13" s="183"/>
+      <c r="L13" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="181" t="s">
         <v>119</v>
       </c>
       <c r="N13" s="42"/>
     </row>
     <row r="14" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2.72</v>
-      </c>
-      <c r="E14" s="9">
-        <v>29.974988280000002</v>
-      </c>
-      <c r="F14" s="145">
-        <v>1</v>
-      </c>
-      <c r="G14" s="145">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="B14" s="152" t="s">
+        <v>584</v>
+      </c>
+      <c r="C14" s="152" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="180">
+        <v>1</v>
+      </c>
+      <c r="E14" s="180">
+        <v>210.95</v>
+      </c>
+      <c r="F14" s="176">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="176">
+        <v>1</v>
+      </c>
+      <c r="H14" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="139">
-        <v>8</v>
-      </c>
-      <c r="K14" s="140"/>
-      <c r="L14" s="12" t="s">
+      <c r="I14" s="181"/>
+      <c r="J14" s="182">
+        <v>5</v>
+      </c>
+      <c r="K14" s="183"/>
+      <c r="L14" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="181" t="s">
         <v>119</v>
       </c>
       <c r="N14" s="42"/>
     </row>
     <row r="15" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>583</v>
+        <v>165</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="D15" s="9">
-        <v>1</v>
+        <v>23.815000000000001</v>
       </c>
       <c r="E15" s="9">
-        <v>168.38</v>
+        <v>638.85</v>
       </c>
       <c r="F15" s="145">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="145">
         <v>1</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J15" s="139">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K15" s="140"/>
       <c r="L15" s="12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>119</v>
@@ -15961,36 +15962,38 @@
     </row>
     <row r="16" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>584</v>
+        <v>166</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="D16" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="9">
-        <v>168.38</v>
+        <v>507.95</v>
       </c>
       <c r="F16" s="145">
-        <v>0.1</v>
+        <v>0.78</v>
       </c>
       <c r="G16" s="145">
         <v>1</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I16" s="10"/>
+        <v>179</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="J16" s="139">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K16" s="140"/>
       <c r="L16" s="12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>119</v>
@@ -15999,34 +16002,34 @@
     </row>
     <row r="17" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="D17" s="9">
-        <v>23.815000000000001</v>
+        <v>1</v>
       </c>
       <c r="E17" s="9">
-        <v>638.85</v>
+        <v>141.3235316</v>
       </c>
       <c r="F17" s="145">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G17" s="145">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J17" s="139">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K17" s="140"/>
       <c r="L17" s="12" t="s">
@@ -16039,34 +16042,34 @@
     </row>
     <row r="18" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="D18" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="9">
-        <v>507.95</v>
+        <v>154.0745714</v>
       </c>
       <c r="F18" s="145">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="G18" s="145">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J18" s="139">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K18" s="140"/>
       <c r="L18" s="12" t="s">
@@ -16082,7 +16085,7 @@
         <v>137</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>124</v>
@@ -16091,13 +16094,13 @@
         <v>1</v>
       </c>
       <c r="E19" s="9">
-        <v>141.3235316</v>
+        <v>151.0703345</v>
       </c>
       <c r="F19" s="145">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G19" s="145">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>139</v>
@@ -16119,10 +16122,10 @@
     </row>
     <row r="20" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>124</v>
@@ -16131,13 +16134,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="9">
-        <v>154.0745714</v>
+        <v>143.81093200000001</v>
       </c>
       <c r="F20" s="145">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G20" s="145">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>139</v>
@@ -16159,10 +16162,10 @@
     </row>
     <row r="21" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>124</v>
@@ -16171,10 +16174,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="9">
-        <v>151.0703345</v>
+        <v>155.69327179999999</v>
       </c>
       <c r="F21" s="145">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="G21" s="145">
         <v>1</v>
@@ -16202,7 +16205,7 @@
         <v>143</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>124</v>
@@ -16211,10 +16214,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="9">
-        <v>143.81093200000001</v>
+        <v>216.75147200000001</v>
       </c>
       <c r="F22" s="145">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="145">
         <v>0.7</v>
@@ -16239,10 +16242,10 @@
     </row>
     <row r="23" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>124</v>
@@ -16251,10 +16254,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="9">
-        <v>155.69327179999999</v>
+        <v>353.8204149</v>
       </c>
       <c r="F23" s="145">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G23" s="145">
         <v>1</v>
@@ -16279,10 +16282,10 @@
     </row>
     <row r="24" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>124</v>
@@ -16291,22 +16294,22 @@
         <v>1</v>
       </c>
       <c r="E24" s="9">
-        <v>216.75147200000001</v>
+        <v>415.5317</v>
       </c>
       <c r="F24" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="145">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J24" s="139">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" s="140"/>
       <c r="L24" s="12" t="s">
@@ -16319,10 +16322,10 @@
     </row>
     <row r="25" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>124</v>
@@ -16331,22 +16334,22 @@
         <v>1</v>
       </c>
       <c r="E25" s="9">
-        <v>353.8204149</v>
+        <v>373.34588300000001</v>
       </c>
       <c r="F25" s="145">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G25" s="145">
         <v>1</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J25" s="139">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K25" s="140"/>
       <c r="L25" s="12" t="s">
@@ -16362,7 +16365,7 @@
         <v>148</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>124</v>
@@ -16371,7 +16374,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="9">
-        <v>415.5317</v>
+        <v>143.16040000000001</v>
       </c>
       <c r="F26" s="145">
         <v>1</v>
@@ -16402,7 +16405,7 @@
         <v>148</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>124</v>
@@ -16411,7 +16414,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="9">
-        <v>373.34588300000001</v>
+        <v>165.18307999999999</v>
       </c>
       <c r="F27" s="145">
         <v>0.85</v>
@@ -16442,19 +16445,19 @@
         <v>148</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="141">
         <v>1</v>
       </c>
       <c r="E28" s="9">
-        <v>143.16040000000001</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="F28" s="145">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G28" s="145">
         <v>1</v>
@@ -16466,9 +16469,9 @@
         <v>54</v>
       </c>
       <c r="J28" s="139">
-        <v>5</v>
-      </c>
-      <c r="K28" s="140"/>
+        <v>4</v>
+      </c>
+      <c r="K28" s="142"/>
       <c r="L28" s="12" t="s">
         <v>140</v>
       </c>
@@ -16482,16 +16485,16 @@
         <v>148</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="141">
         <v>1</v>
       </c>
       <c r="E29" s="9">
-        <v>165.18307999999999</v>
+        <v>37.083282497250011</v>
       </c>
       <c r="F29" s="145">
         <v>0.85</v>
@@ -16506,9 +16509,9 @@
         <v>54</v>
       </c>
       <c r="J29" s="139">
-        <v>5</v>
-      </c>
-      <c r="K29" s="140"/>
+        <v>4</v>
+      </c>
+      <c r="K29" s="142"/>
       <c r="L29" s="12" t="s">
         <v>140</v>
       </c>
@@ -16522,7 +16525,7 @@
         <v>148</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>124</v>
@@ -16562,7 +16565,7 @@
         <v>148</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>124</v>
@@ -16602,7 +16605,7 @@
         <v>148</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>124</v>
@@ -16642,7 +16645,7 @@
         <v>148</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>124</v>
@@ -16682,7 +16685,7 @@
         <v>148</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>124</v>
@@ -16722,7 +16725,7 @@
         <v>148</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>124</v>
@@ -16762,7 +16765,7 @@
         <v>148</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>124</v>
@@ -16774,10 +16777,10 @@
         <v>37.083282497250011</v>
       </c>
       <c r="F36" s="145">
-        <v>0.85</v>
+        <v>0.4</v>
       </c>
       <c r="G36" s="145">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>150</v>
@@ -16802,19 +16805,19 @@
         <v>148</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="141">
-        <v>1</v>
+      <c r="D37" s="9">
+        <v>15</v>
       </c>
       <c r="E37" s="9">
-        <v>37.083282497250011</v>
+        <v>150.75812082989998</v>
       </c>
       <c r="F37" s="145">
-        <v>0.85</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G37" s="145">
         <v>1</v>
@@ -16826,9 +16829,9 @@
         <v>54</v>
       </c>
       <c r="J37" s="139">
-        <v>4</v>
-      </c>
-      <c r="K37" s="142"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="140"/>
       <c r="L37" s="12" t="s">
         <v>140</v>
       </c>
@@ -16839,36 +16842,36 @@
     </row>
     <row r="38" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="141">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D38" s="9">
+        <v>3.036</v>
       </c>
       <c r="E38" s="9">
-        <v>37.083282497250011</v>
+        <v>45.420945379999999</v>
       </c>
       <c r="F38" s="145">
-        <v>0.4</v>
-      </c>
-      <c r="G38" s="145">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="G38" s="179">
+        <v>1</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J38" s="139">
-        <v>4</v>
-      </c>
-      <c r="K38" s="142"/>
+        <v>7</v>
+      </c>
+      <c r="K38" s="140"/>
       <c r="L38" s="12" t="s">
         <v>140</v>
       </c>
@@ -16879,34 +16882,34 @@
     </row>
     <row r="39" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="D39" s="9">
-        <v>15</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="E39" s="9">
-        <v>150.75812082989998</v>
+        <v>61.408012210000003</v>
       </c>
       <c r="F39" s="145">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G39" s="145">
         <v>1</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J39" s="139">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K39" s="140"/>
       <c r="L39" s="12" t="s">
@@ -16922,21 +16925,21 @@
         <v>167</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="9">
-        <v>3.036</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="E40" s="9">
-        <v>45.420945379999999</v>
+        <v>67.666316499999994</v>
       </c>
       <c r="F40" s="145">
         <v>1</v>
       </c>
-      <c r="G40" s="179">
+      <c r="G40" s="145">
         <v>1</v>
       </c>
       <c r="H40" s="8" t="s">
@@ -16962,22 +16965,22 @@
         <v>167</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="9">
-        <v>3.2639999999999998</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="E41" s="9">
-        <v>61.408012210000003</v>
+        <v>25.706503519999998</v>
       </c>
       <c r="F41" s="145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>169</v>
@@ -17002,21 +17005,21 @@
         <v>167</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="9">
-        <v>2.4279999999999999</v>
+        <v>3.2850000000000001</v>
       </c>
       <c r="E42" s="9">
-        <v>67.666316499999994</v>
+        <v>139.5950848</v>
       </c>
       <c r="F42" s="145">
         <v>1</v>
       </c>
-      <c r="G42" s="145">
+      <c r="G42" s="179">
         <v>1</v>
       </c>
       <c r="H42" s="8" t="s">
@@ -17042,21 +17045,21 @@
         <v>167</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="9">
-        <v>0.63400000000000001</v>
+        <v>5.2176</v>
       </c>
       <c r="E43" s="9">
-        <v>25.706503519999998</v>
+        <v>103.1260091</v>
       </c>
       <c r="F43" s="145">
         <v>0</v>
       </c>
-      <c r="G43" s="145">
+      <c r="G43" s="179">
         <v>0</v>
       </c>
       <c r="H43" s="8" t="s">
@@ -17082,19 +17085,19 @@
         <v>167</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="9">
-        <v>3.2850000000000001</v>
+        <v>4.327</v>
       </c>
       <c r="E44" s="9">
-        <v>139.5950848</v>
+        <v>115.1915241</v>
       </c>
       <c r="F44" s="145">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="G44" s="179">
         <v>1</v>
@@ -17122,22 +17125,22 @@
         <v>167</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="9">
-        <v>5.2176</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="E45" s="9">
-        <v>103.1260091</v>
+        <v>65.549040759999997</v>
       </c>
       <c r="F45" s="145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>169</v>
@@ -17162,19 +17165,19 @@
         <v>167</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="9">
-        <v>4.327</v>
+        <v>4.5</v>
       </c>
       <c r="E46" s="9">
-        <v>115.1915241</v>
+        <v>145.97701989999999</v>
       </c>
       <c r="F46" s="145">
-        <v>0.45</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G46" s="179">
         <v>1</v>
@@ -17202,19 +17205,19 @@
         <v>167</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="9">
-        <v>2.4279999999999999</v>
+        <v>7.51</v>
       </c>
       <c r="E47" s="9">
-        <v>65.549040759999997</v>
+        <v>137.49720149999999</v>
       </c>
       <c r="F47" s="145">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="G47" s="179">
         <v>1</v>
@@ -17236,86 +17239,6 @@
         <v>119</v>
       </c>
       <c r="N47" s="42"/>
-    </row>
-    <row r="48" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A48" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="E48" s="9">
-        <v>145.97701989999999</v>
-      </c>
-      <c r="F48" s="145">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G48" s="179">
-        <v>1</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J48" s="139">
-        <v>7</v>
-      </c>
-      <c r="K48" s="140"/>
-      <c r="L48" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="N48" s="42"/>
-    </row>
-    <row r="49" spans="1:14" s="13" customFormat="1" ht="38.1" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="9">
-        <v>7.51</v>
-      </c>
-      <c r="E49" s="9">
-        <v>137.49720149999999</v>
-      </c>
-      <c r="F49" s="145">
-        <v>0.53</v>
-      </c>
-      <c r="G49" s="179">
-        <v>1</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J49" s="139">
-        <v>7</v>
-      </c>
-      <c r="K49" s="140"/>
-      <c r="L49" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="N49" s="42"/>
     </row>
   </sheetData>
   <sortState ref="A2:M48">
@@ -22538,7 +22461,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="56.25">
+    <row r="138" spans="1:14" ht="37.5">
       <c r="A138" s="8" t="s">
         <v>369</v>
       </c>

--- a/Civilworks cost/RADP Preparations/Hoboganj/Revised with appendix/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Hoboganj/Revised with appendix/Projecttion_input.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="HaorCode" sheetId="9" r:id="rId1"/>
-    <sheet name="Structure_Type" sheetId="8" r:id="rId2"/>
-    <sheet name="Hobiganj" sheetId="5" r:id="rId3"/>
-    <sheet name="Kishoregnj" sheetId="12" r:id="rId4"/>
-    <sheet name="Projection" sheetId="3" r:id="rId5"/>
-    <sheet name="Netrokona" sheetId="2" r:id="rId6"/>
-    <sheet name="Sunamgonj" sheetId="7" r:id="rId7"/>
-    <sheet name="Packages" sheetId="1" r:id="rId8"/>
+    <sheet name="Packages" sheetId="18" r:id="rId1"/>
+    <sheet name="HaorCode" sheetId="9" r:id="rId2"/>
+    <sheet name="Structure_Type" sheetId="8" r:id="rId3"/>
+    <sheet name="Hobiganj" sheetId="5" r:id="rId4"/>
+    <sheet name="Kishoregnj" sheetId="12" r:id="rId5"/>
+    <sheet name="Projection" sheetId="3" r:id="rId6"/>
+    <sheet name="Netrokona" sheetId="2" r:id="rId7"/>
+    <sheet name="Sunamgonj" sheetId="7" r:id="rId8"/>
     <sheet name="Netrokona_Categorical_Projectio" sheetId="4" r:id="rId9"/>
     <sheet name="Habiganj_Categorical_Projection" sheetId="6" r:id="rId10"/>
     <sheet name="Sunamgonj_Categorical_Projectio" sheetId="10" r:id="rId11"/>
@@ -23,25 +23,25 @@
     <sheet name="Sheet1" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hobiganj!$A$1:$K$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Kishoregnj!$A$1:$K$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Netrokona!$A$1:$K$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sunamgonj!$A$1:$J$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hobiganj!$A$1:$K$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Kishoregnj!$A$1:$K$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Netrokona!$A$1:$K$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sunamgonj!$A$1:$J$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Habiganj_Categorical_Projection!$A$1:$P$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HaorCode!$A$1:$B$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Hobiganj!$A$1:$N$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Kishoregnj!$A$1:$O$152</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Netrokona!$A$1:$O$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">HaorCode!$A$1:$B$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Hobiganj!$A$1:$N$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Kishoregnj!$A$1:$O$152</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Netrokona!$A$1:$O$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Netrokona_Categorical_Projectio!$A$1:$P$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Structure_Type!$A$1:$E$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">Sunamgonj!$A$1:$N$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Structure_Type!$A$1:$E$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Sunamgonj!$A$1:$N$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">Sunamgonj_Categorical_Projectio!$A$1:$Q$62</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">Habiganj_Categorical_Projection!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">Hobiganj!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">Kishoregnj!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">Netrokona!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">Hobiganj!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">Kishoregnj!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">Netrokona!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">Netrokona_Categorical_Projectio!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">Sunamgonj!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">Sunamgonj!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">Sunamgonj_Categorical_Projectio!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3083" uniqueCount="593">
   <si>
     <t>Package Name</t>
   </si>
@@ -1683,9 +1683,6 @@
     <t>KISH/PW-27</t>
   </si>
   <si>
-    <t>KISH/PW-28</t>
-  </si>
-  <si>
     <t>KISH/PW-29</t>
   </si>
   <si>
@@ -1825,19 +1822,40 @@
     <t>NETR/PW-08</t>
   </si>
   <si>
+    <t>Construction of  Dairar Khal Causeway 6-m width Causeway</t>
+  </si>
+  <si>
+    <t>Ikrampur CW-6M</t>
+  </si>
+  <si>
+    <t>Construction of 6.00m Islampur causeway</t>
+  </si>
+  <si>
+    <t>Reahblitation of Existing 3-vent Regulator</t>
+  </si>
+  <si>
+    <t>KISH/PW-28/Lot-01</t>
+  </si>
+  <si>
+    <t>KISH/PW-28/Lot-02</t>
+  </si>
+  <si>
+    <t>KISH/PW-28/Lot-03</t>
+  </si>
+  <si>
+    <t>KISH/PW-28/Lot-04</t>
+  </si>
+  <si>
+    <t>HOBI/PW-03</t>
+  </si>
+  <si>
     <t>SUNM/PW-07</t>
   </si>
   <si>
-    <t>Construction of  Dairar Khal Causeway 6-m width Causeway</t>
-  </si>
-  <si>
-    <t>Ikrampur CW-6M</t>
-  </si>
-  <si>
-    <t>Construction of 6.00m Islampur causeway</t>
-  </si>
-  <si>
-    <t>Reahblitation of Existing 3-vent Regulator</t>
+    <t>BWDB/Kish/HFMLIP/ PW-28</t>
+  </si>
+  <si>
+    <t>WMG Building</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2583,13 +2601,7 @@
     <xf numFmtId="4" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2659,8 +2671,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2673,9 +2685,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8741,268 +8750,725 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="B12" s="47" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="150" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1" s="150" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="150">
+        <v>1</v>
+      </c>
+      <c r="B2" s="150" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="44">
+        <v>51.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="150">
+        <v>2</v>
+      </c>
+      <c r="B3" s="150" t="s">
+        <v>501</v>
+      </c>
+      <c r="C3" s="44">
+        <v>347.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="150">
+        <v>3</v>
+      </c>
+      <c r="B4" s="150" t="s">
+        <v>492</v>
+      </c>
+      <c r="C4" s="44">
+        <v>625.92999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="150">
+        <v>4</v>
+      </c>
+      <c r="B5" s="150" t="s">
+        <v>486</v>
+      </c>
+      <c r="C5" s="44">
+        <v>714.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="150">
+        <v>5</v>
+      </c>
+      <c r="B6" s="150" t="s">
+        <v>483</v>
+      </c>
+      <c r="C6" s="44">
+        <v>575.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="150">
+        <v>6</v>
+      </c>
+      <c r="B7" s="150" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" s="44">
+        <v>837.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="150">
+        <v>7</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="C8" s="159">
+        <v>565.07000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="150">
+        <v>8</v>
+      </c>
+      <c r="B9" s="150" t="s">
+        <v>533</v>
+      </c>
+      <c r="C9" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="150">
+        <v>9</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="C10" s="159">
+        <v>712.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="150">
+        <v>10</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="C11" s="44">
+        <v>409.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="150">
+        <v>11</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="C12" s="44">
+        <v>522.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="150">
+        <v>12</v>
+      </c>
+      <c r="B13" s="150" t="s">
+        <v>424</v>
+      </c>
+      <c r="C13" s="44">
+        <v>705.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="150">
+        <v>13</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="C14" s="160">
+        <v>647.20000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="150">
+        <v>14</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="C15" s="44">
+        <v>806.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="150">
+        <v>15</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="C16" s="44">
+        <v>333.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="150">
+        <v>16</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C17" s="44">
+        <v>721.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="150">
+        <v>17</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="159">
+        <v>1451.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="150">
+        <v>18</v>
+      </c>
+      <c r="B19" s="150" t="s">
+        <v>505</v>
+      </c>
+      <c r="C19" s="44">
+        <v>711.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="150">
+        <v>19</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="C20" s="159">
+        <v>331.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="150">
+        <v>20</v>
+      </c>
+      <c r="B21" s="150" t="s">
+        <v>388</v>
+      </c>
+      <c r="C21" s="44">
+        <v>501.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="150">
+        <v>21</v>
+      </c>
+      <c r="B22" s="150" t="s">
+        <v>520</v>
+      </c>
+      <c r="C22" s="44">
+        <v>268.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="150">
+        <v>22</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" s="44">
+        <v>281.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="150">
+        <v>23</v>
+      </c>
+      <c r="B24" s="150" t="s">
+        <v>356</v>
+      </c>
+      <c r="C24" s="161">
+        <v>720.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="150">
+        <v>24</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="C25" s="159">
+        <v>890.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="150">
+        <v>25</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="C26" s="44">
+        <v>749.37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="150">
+        <v>26</v>
+      </c>
+      <c r="B27" s="150" t="s">
+        <v>368</v>
+      </c>
+      <c r="C27" s="44">
+        <v>501.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="150">
+        <v>27</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="C28" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="150">
+        <v>28</v>
+      </c>
+      <c r="B29" s="150" t="s">
+        <v>585</v>
+      </c>
+      <c r="C29" s="150">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="150">
+        <v>29</v>
+      </c>
+      <c r="B30" s="150" t="s">
+        <v>586</v>
+      </c>
+      <c r="C30" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="150">
+        <v>30</v>
+      </c>
+      <c r="B31" s="150" t="s">
+        <v>587</v>
+      </c>
+      <c r="C31" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="150">
+        <v>31</v>
+      </c>
+      <c r="B32" s="150" t="s">
+        <v>588</v>
+      </c>
+      <c r="C32" s="150">
+        <v>74.41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="150">
+        <v>32</v>
+      </c>
+      <c r="B33" s="150" t="s">
+        <v>535</v>
+      </c>
+      <c r="C33" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="150">
+        <v>33</v>
+      </c>
+      <c r="B34" s="150" t="s">
+        <v>536</v>
+      </c>
+      <c r="C34" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="150">
+        <v>34</v>
+      </c>
+      <c r="B35" s="150" t="s">
+        <v>537</v>
+      </c>
+      <c r="C35" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="150">
+        <v>35</v>
+      </c>
+      <c r="B36" s="150" t="s">
+        <v>538</v>
+      </c>
+      <c r="C36" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="150">
+        <v>36</v>
+      </c>
+      <c r="B37" s="150" t="s">
+        <v>539</v>
+      </c>
+      <c r="C37" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="150">
+        <v>37</v>
+      </c>
+      <c r="B38" s="150" t="s">
+        <v>540</v>
+      </c>
+      <c r="C38" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="150">
+        <v>38</v>
+      </c>
+      <c r="B39" s="150" t="s">
+        <v>541</v>
+      </c>
+      <c r="C39" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="150">
+        <v>39</v>
+      </c>
+      <c r="B40" s="150" t="s">
+        <v>542</v>
+      </c>
+      <c r="C40" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="150">
+        <v>40</v>
+      </c>
+      <c r="B41" s="150" t="s">
+        <v>543</v>
+      </c>
+      <c r="C41" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="150">
+        <v>41</v>
+      </c>
+      <c r="B42" s="150" t="s">
+        <v>544</v>
+      </c>
+      <c r="C42" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="150">
+        <v>42</v>
+      </c>
+      <c r="B43" s="150" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="150">
+        <v>938.57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="150">
+        <v>43</v>
+      </c>
+      <c r="B44" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="150">
+        <v>1079.52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="150">
+        <v>44</v>
+      </c>
+      <c r="B45" s="150" t="s">
+        <v>589</v>
+      </c>
+      <c r="C45" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="150">
+        <v>45</v>
+      </c>
+      <c r="B46" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="150">
+        <v>655.94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="150">
+        <v>46</v>
+      </c>
+      <c r="B47" s="150" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="150">
+        <v>307.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="150">
+        <v>47</v>
+      </c>
+      <c r="B48" s="150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="150">
+        <v>1094.31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="150">
+        <v>48</v>
+      </c>
+      <c r="B49" s="150" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="150">
+        <v>667.67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="150">
+        <v>49</v>
+      </c>
+      <c r="B50" s="150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="150">
+        <v>817.97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="150">
+        <v>50</v>
+      </c>
+      <c r="B51" s="150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="150">
+        <v>475.85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="150">
+        <v>51</v>
+      </c>
+      <c r="B52" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="150">
+        <v>712.73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="150">
+        <v>52</v>
+      </c>
+      <c r="B53" s="150" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="150">
+        <v>844.17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="150">
+        <v>53</v>
+      </c>
+      <c r="B54" s="150" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="150">
+        <v>635.34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="150">
+        <v>54</v>
+      </c>
+      <c r="B55" s="150" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="150">
+        <v>375.82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="150">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>302</v>
-      </c>
+      <c r="B56" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="150">
+        <v>567.71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="150">
+        <v>56</v>
+      </c>
+      <c r="B57" s="150" t="s">
+        <v>580</v>
+      </c>
+      <c r="C57" s="150">
+        <v>134.16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="150">
+        <v>57</v>
+      </c>
+      <c r="B58" s="150" t="s">
+        <v>314</v>
+      </c>
+      <c r="C58" s="150">
+        <v>913.55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="150">
+        <v>58</v>
+      </c>
+      <c r="B59" s="150" t="s">
+        <v>312</v>
+      </c>
+      <c r="C59" s="150">
+        <v>926.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="150">
+        <v>59</v>
+      </c>
+      <c r="B60" s="150" t="s">
+        <v>310</v>
+      </c>
+      <c r="C60" s="150">
+        <v>511.73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="150">
+        <v>60</v>
+      </c>
+      <c r="B61" s="150" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" s="150">
+        <v>1521.41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="150">
+        <v>61</v>
+      </c>
+      <c r="B62" s="150" t="s">
+        <v>306</v>
+      </c>
+      <c r="C62" s="150">
+        <v>1061.82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="150">
+        <v>62</v>
+      </c>
+      <c r="B63" s="150" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" s="150">
+        <v>1268.067</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="150">
+        <v>63</v>
+      </c>
+      <c r="B64" s="150" t="s">
+        <v>590</v>
+      </c>
+      <c r="C64" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13609,13 +14075,13 @@
       <c r="Q48" s="26"/>
     </row>
     <row r="49" spans="1:16" ht="43.15" customHeight="1">
-      <c r="A49" s="189" t="s">
+      <c r="A49" s="187" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="189"/>
-      <c r="C49" s="189"/>
-      <c r="D49" s="189"/>
-      <c r="E49" s="189"/>
+      <c r="B49" s="187"/>
+      <c r="C49" s="187"/>
+      <c r="D49" s="187"/>
+      <c r="E49" s="187"/>
       <c r="F49" s="39">
         <f>SUM(F2:F48)</f>
         <v>8936.8330894957307</v>
@@ -14546,24 +15012,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="150" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B1" s="150" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>561</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="150" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B2" s="150"/>
       <c r="C2" s="16"/>
@@ -14574,18 +15040,18 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="150" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B3" s="150"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="169">
+      <c r="D3" s="167">
         <v>0</v>
       </c>
       <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="150" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B4" s="150"/>
       <c r="C4" s="16"/>
@@ -14596,7 +15062,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="150" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B5" s="150"/>
       <c r="C5" s="16"/>
@@ -14607,7 +15073,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B6" s="150"/>
       <c r="C6" s="16"/>
@@ -14618,7 +15084,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="150" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B7" s="150"/>
       <c r="C7" s="16"/>
@@ -14629,7 +15095,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="150" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B8" s="150"/>
       <c r="C8" s="16"/>
@@ -14640,7 +15106,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="150" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B9" s="150"/>
       <c r="C9" s="16"/>
@@ -14651,7 +15117,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="150" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B10" s="150"/>
       <c r="C10" s="16"/>
@@ -14662,7 +15128,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="150" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B11" s="150"/>
       <c r="C11" s="16"/>
@@ -14673,7 +15139,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B12" s="150"/>
       <c r="C12" s="16"/>
@@ -14684,7 +15150,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="150" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B13" s="150"/>
       <c r="C13" s="16"/>
@@ -14773,7 +15239,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="150" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="94"/>
@@ -14790,7 +15256,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="150" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B3" s="96"/>
       <c r="C3" s="94"/>
@@ -14805,13 +15271,13 @@
     </row>
     <row r="4" spans="1:8" ht="13.15" customHeight="1">
       <c r="A4" s="150" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B4" s="94"/>
       <c r="C4" s="94">
         <v>98</v>
       </c>
-      <c r="D4" s="175"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="94">
         <v>307.8</v>
       </c>
@@ -14826,13 +15292,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="150" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B5" s="94"/>
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="96"/>
-      <c r="F5" s="170"/>
+      <c r="F5" s="168"/>
       <c r="G5" s="94">
         <v>667.67</v>
       </c>
@@ -14843,7 +15309,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B6" s="94">
         <v>646.97</v>
@@ -14862,7 +15328,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="150" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B7" s="94"/>
       <c r="C7" s="94"/>
@@ -14877,7 +15343,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="150" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B8" s="94">
         <v>291.3</v>
@@ -14896,7 +15362,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="150" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
@@ -14913,7 +15379,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="150" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
@@ -14928,7 +15394,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="150" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B11" s="96"/>
       <c r="C11" s="94"/>
@@ -14943,7 +15409,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B12" s="96"/>
       <c r="C12" s="94"/>
@@ -14958,7 +15424,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="150" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B13" s="96"/>
       <c r="C13" s="94"/>
@@ -15007,6 +15473,277 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -15029,7 +15766,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="47" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>220</v>
@@ -15038,10 +15775,10 @@
         <v>221</v>
       </c>
       <c r="D1" s="150" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1" s="162" t="s">
         <v>546</v>
-      </c>
-      <c r="E1" s="164" t="s">
-        <v>547</v>
       </c>
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
@@ -15061,10 +15798,10 @@
         <v>22</v>
       </c>
       <c r="E2" s="150" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H2" s="74"/>
-      <c r="I2" s="165"/>
+      <c r="I2" s="163"/>
       <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:10">
@@ -15081,10 +15818,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="150" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H3" s="74"/>
-      <c r="I3" s="165"/>
+      <c r="I3" s="163"/>
       <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10">
@@ -15101,10 +15838,10 @@
         <v>6503.97</v>
       </c>
       <c r="E4" s="150" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H4" s="74"/>
-      <c r="I4" s="165"/>
+      <c r="I4" s="163"/>
       <c r="J4" s="74"/>
     </row>
     <row r="5" spans="1:10">
@@ -15121,10 +15858,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="150" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H5" s="74"/>
-      <c r="I5" s="165"/>
+      <c r="I5" s="163"/>
       <c r="J5" s="74"/>
     </row>
     <row r="6" spans="1:10">
@@ -15141,10 +15878,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="150" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H6" s="74"/>
-      <c r="I6" s="165"/>
+      <c r="I6" s="163"/>
       <c r="J6" s="74"/>
     </row>
     <row r="7" spans="1:10">
@@ -15161,10 +15898,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="150" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H7" s="74"/>
-      <c r="I7" s="165"/>
+      <c r="I7" s="163"/>
       <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:10">
@@ -15181,10 +15918,10 @@
         <v>2546.54</v>
       </c>
       <c r="E8" s="150" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H8" s="74"/>
-      <c r="I8" s="165"/>
+      <c r="I8" s="163"/>
       <c r="J8" s="74"/>
     </row>
     <row r="9" spans="1:10">
@@ -15201,10 +15938,10 @@
         <v>51.09</v>
       </c>
       <c r="E9" s="150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H9" s="74"/>
-      <c r="I9" s="165"/>
+      <c r="I9" s="163"/>
       <c r="J9" s="74"/>
     </row>
     <row r="10" spans="1:10">
@@ -15219,10 +15956,10 @@
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="150" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H10" s="74"/>
-      <c r="I10" s="165"/>
+      <c r="I10" s="163"/>
       <c r="J10" s="74"/>
     </row>
     <row r="11" spans="1:10">
@@ -15237,10 +15974,10 @@
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="150" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H11" s="74"/>
-      <c r="I11" s="165"/>
+      <c r="I11" s="163"/>
       <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:10">
@@ -15257,10 +15994,10 @@
         <v>5833.04</v>
       </c>
       <c r="E12" s="150" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H12" s="74"/>
-      <c r="I12" s="165"/>
+      <c r="I12" s="163"/>
       <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:10">
@@ -15275,7 +16012,7 @@
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="150" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="74"/>
@@ -15293,7 +16030,7 @@
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="150" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H14" s="74"/>
       <c r="I14" s="74"/>
@@ -15311,7 +16048,7 @@
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -15326,7 +16063,7 @@
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="150" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -15335,12 +16072,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C43" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15412,32 +16149,32 @@
       <c r="C2" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="180">
+      <c r="D2" s="178">
         <v>9.42</v>
       </c>
-      <c r="E2" s="180">
+      <c r="E2" s="178">
         <v>237.21</v>
       </c>
-      <c r="F2" s="176">
-        <v>1</v>
-      </c>
-      <c r="G2" s="176">
+      <c r="F2" s="174">
+        <v>1</v>
+      </c>
+      <c r="G2" s="174">
         <v>1</v>
       </c>
       <c r="H2" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="181" t="s">
+      <c r="I2" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="182">
+      <c r="J2" s="180">
         <v>10</v>
       </c>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184" t="s">
+      <c r="K2" s="181"/>
+      <c r="L2" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="M2" s="181" t="s">
+      <c r="M2" s="179" t="s">
         <v>119</v>
       </c>
       <c r="N2" s="42"/>
@@ -15452,32 +16189,32 @@
       <c r="C3" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="180">
+      <c r="D3" s="178">
         <v>7</v>
       </c>
-      <c r="E3" s="180">
+      <c r="E3" s="178">
         <v>149.29</v>
       </c>
-      <c r="F3" s="176">
-        <v>1</v>
-      </c>
-      <c r="G3" s="176">
+      <c r="F3" s="174">
+        <v>1</v>
+      </c>
+      <c r="G3" s="174">
         <v>1</v>
       </c>
       <c r="H3" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="181" t="s">
+      <c r="I3" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="182">
+      <c r="J3" s="180">
         <v>10</v>
       </c>
-      <c r="K3" s="183"/>
-      <c r="L3" s="184" t="s">
+      <c r="K3" s="181"/>
+      <c r="L3" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="181" t="s">
+      <c r="M3" s="179" t="s">
         <v>119</v>
       </c>
       <c r="N3" s="42"/>
@@ -15492,32 +16229,32 @@
       <c r="C4" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="180">
+      <c r="D4" s="178">
         <v>17.399999999999999</v>
       </c>
-      <c r="E4" s="180">
+      <c r="E4" s="178">
         <v>732.6</v>
       </c>
-      <c r="F4" s="176">
+      <c r="F4" s="174">
         <v>0.8</v>
       </c>
-      <c r="G4" s="176">
+      <c r="G4" s="174">
         <v>1</v>
       </c>
       <c r="H4" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="181" t="s">
+      <c r="I4" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="182">
+      <c r="J4" s="180">
         <v>8</v>
       </c>
-      <c r="K4" s="183"/>
-      <c r="L4" s="184" t="s">
+      <c r="K4" s="181"/>
+      <c r="L4" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="M4" s="181" t="s">
+      <c r="M4" s="179" t="s">
         <v>119</v>
       </c>
       <c r="N4" s="42"/>
@@ -15532,32 +16269,32 @@
       <c r="C5" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="180">
+      <c r="D5" s="178">
         <v>2.9249999999999998</v>
       </c>
-      <c r="E5" s="180">
+      <c r="E5" s="178">
         <v>99.9</v>
       </c>
-      <c r="F5" s="176">
-        <v>1</v>
-      </c>
-      <c r="G5" s="176">
+      <c r="F5" s="174">
+        <v>1</v>
+      </c>
+      <c r="G5" s="174">
         <v>1</v>
       </c>
       <c r="H5" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="181" t="s">
+      <c r="I5" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="182">
+      <c r="J5" s="180">
         <v>8</v>
       </c>
-      <c r="K5" s="183"/>
-      <c r="L5" s="184" t="s">
+      <c r="K5" s="181"/>
+      <c r="L5" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="M5" s="181" t="s">
+      <c r="M5" s="179" t="s">
         <v>119</v>
       </c>
       <c r="N5" s="42"/>
@@ -15567,37 +16304,37 @@
         <v>115</v>
       </c>
       <c r="B6" s="152" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C6" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="180">
-        <v>1</v>
-      </c>
-      <c r="E6" s="180">
+      <c r="D6" s="178">
+        <v>1</v>
+      </c>
+      <c r="E6" s="178">
         <v>69.47</v>
       </c>
-      <c r="F6" s="176">
+      <c r="F6" s="174">
         <v>0</v>
       </c>
-      <c r="G6" s="177">
+      <c r="G6" s="175">
         <v>1</v>
       </c>
       <c r="H6" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="181" t="s">
+      <c r="I6" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="182">
+      <c r="J6" s="180">
         <v>3</v>
       </c>
-      <c r="K6" s="183"/>
-      <c r="L6" s="184" t="s">
+      <c r="K6" s="181"/>
+      <c r="L6" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="181" t="s">
+      <c r="M6" s="179" t="s">
         <v>119</v>
       </c>
       <c r="N6" s="42"/>
@@ -15607,37 +16344,37 @@
         <v>115</v>
       </c>
       <c r="B7" s="152" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C7" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="180">
-        <v>1</v>
-      </c>
-      <c r="E7" s="180">
+      <c r="D7" s="178">
+        <v>1</v>
+      </c>
+      <c r="E7" s="178">
         <v>247.53</v>
       </c>
-      <c r="F7" s="176">
+      <c r="F7" s="174">
         <v>0</v>
       </c>
-      <c r="G7" s="178">
+      <c r="G7" s="176">
         <v>1</v>
       </c>
       <c r="H7" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="181" t="s">
+      <c r="I7" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="182">
+      <c r="J7" s="180">
         <v>5</v>
       </c>
-      <c r="K7" s="183"/>
-      <c r="L7" s="184" t="s">
+      <c r="K7" s="181"/>
+      <c r="L7" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="M7" s="181" t="s">
+      <c r="M7" s="179" t="s">
         <v>119</v>
       </c>
       <c r="N7" s="42"/>
@@ -15652,32 +16389,32 @@
       <c r="C8" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="180">
+      <c r="D8" s="178">
         <v>5.7</v>
       </c>
-      <c r="E8" s="190">
+      <c r="E8" s="183">
         <v>287.52999999999997</v>
       </c>
-      <c r="F8" s="176">
-        <v>1</v>
-      </c>
-      <c r="G8" s="176">
+      <c r="F8" s="174">
+        <v>1</v>
+      </c>
+      <c r="G8" s="174">
         <v>1</v>
       </c>
       <c r="H8" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I8" s="181" t="s">
+      <c r="I8" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="182">
+      <c r="J8" s="180">
         <v>10</v>
       </c>
-      <c r="K8" s="183"/>
-      <c r="L8" s="184" t="s">
+      <c r="K8" s="181"/>
+      <c r="L8" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="181" t="s">
+      <c r="M8" s="179" t="s">
         <v>119</v>
       </c>
       <c r="N8" s="42"/>
@@ -15692,32 +16429,32 @@
       <c r="C9" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="180">
+      <c r="D9" s="178">
         <v>16.02</v>
       </c>
-      <c r="E9" s="190">
+      <c r="E9" s="183">
         <v>377.59</v>
       </c>
-      <c r="F9" s="176">
-        <v>1</v>
-      </c>
-      <c r="G9" s="176">
+      <c r="F9" s="174">
+        <v>1</v>
+      </c>
+      <c r="G9" s="174">
         <v>1</v>
       </c>
       <c r="H9" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="181" t="s">
+      <c r="I9" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="182">
+      <c r="J9" s="180">
         <v>10</v>
       </c>
-      <c r="K9" s="183"/>
-      <c r="L9" s="184" t="s">
+      <c r="K9" s="181"/>
+      <c r="L9" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="M9" s="181" t="s">
+      <c r="M9" s="179" t="s">
         <v>119</v>
       </c>
       <c r="N9" s="42"/>
@@ -15732,32 +16469,32 @@
       <c r="C10" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="180">
+      <c r="D10" s="178">
         <v>9.42</v>
       </c>
-      <c r="E10" s="190">
+      <c r="E10" s="183">
         <v>304.02999999999997</v>
       </c>
-      <c r="F10" s="176">
-        <v>1</v>
-      </c>
-      <c r="G10" s="176">
+      <c r="F10" s="174">
+        <v>1</v>
+      </c>
+      <c r="G10" s="174">
         <v>1</v>
       </c>
       <c r="H10" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I10" s="181" t="s">
+      <c r="I10" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="182">
+      <c r="J10" s="180">
         <v>10</v>
       </c>
-      <c r="K10" s="183"/>
-      <c r="L10" s="184" t="s">
+      <c r="K10" s="181"/>
+      <c r="L10" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="M10" s="181" t="s">
+      <c r="M10" s="179" t="s">
         <v>119</v>
       </c>
       <c r="N10" s="42"/>
@@ -15772,32 +16509,32 @@
       <c r="C11" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="180">
+      <c r="D11" s="178">
         <v>1.79</v>
       </c>
-      <c r="E11" s="180">
+      <c r="E11" s="178">
         <v>53.047480929999999</v>
       </c>
-      <c r="F11" s="176">
-        <v>1</v>
-      </c>
-      <c r="G11" s="176">
+      <c r="F11" s="174">
+        <v>1</v>
+      </c>
+      <c r="G11" s="174">
         <v>1</v>
       </c>
       <c r="H11" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="181" t="s">
+      <c r="I11" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="182">
+      <c r="J11" s="180">
         <v>8</v>
       </c>
-      <c r="K11" s="183"/>
-      <c r="L11" s="184" t="s">
+      <c r="K11" s="181"/>
+      <c r="L11" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="M11" s="181" t="s">
+      <c r="M11" s="179" t="s">
         <v>119</v>
       </c>
       <c r="N11" s="42"/>
@@ -15812,32 +16549,32 @@
       <c r="C12" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="180">
+      <c r="D12" s="178">
         <v>2.72</v>
       </c>
-      <c r="E12" s="180">
+      <c r="E12" s="178">
         <v>29.974988280000002</v>
       </c>
-      <c r="F12" s="176">
-        <v>1</v>
-      </c>
-      <c r="G12" s="176">
+      <c r="F12" s="174">
+        <v>1</v>
+      </c>
+      <c r="G12" s="174">
         <v>1</v>
       </c>
       <c r="H12" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="181" t="s">
+      <c r="I12" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="182">
+      <c r="J12" s="180">
         <v>8</v>
       </c>
-      <c r="K12" s="183"/>
-      <c r="L12" s="184" t="s">
+      <c r="K12" s="181"/>
+      <c r="L12" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="M12" s="181" t="s">
+      <c r="M12" s="179" t="s">
         <v>119</v>
       </c>
       <c r="N12" s="42"/>
@@ -15847,37 +16584,37 @@
         <v>126</v>
       </c>
       <c r="B13" s="152" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C13" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="180">
-        <v>1</v>
-      </c>
-      <c r="E13" s="180">
+      <c r="D13" s="178">
+        <v>1</v>
+      </c>
+      <c r="E13" s="178">
         <v>244.2</v>
       </c>
-      <c r="F13" s="176">
+      <c r="F13" s="174">
         <v>0.95</v>
       </c>
-      <c r="G13" s="176">
+      <c r="G13" s="174">
         <v>1</v>
       </c>
       <c r="H13" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="181" t="s">
+      <c r="I13" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="182">
+      <c r="J13" s="180">
         <v>5</v>
       </c>
-      <c r="K13" s="183"/>
-      <c r="L13" s="184" t="s">
+      <c r="K13" s="181"/>
+      <c r="L13" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="M13" s="181" t="s">
+      <c r="M13" s="179" t="s">
         <v>119</v>
       </c>
       <c r="N13" s="42"/>
@@ -15887,35 +16624,35 @@
         <v>126</v>
       </c>
       <c r="B14" s="152" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C14" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="180">
-        <v>1</v>
-      </c>
-      <c r="E14" s="180">
+      <c r="D14" s="178">
+        <v>1</v>
+      </c>
+      <c r="E14" s="178">
         <v>210.95</v>
       </c>
-      <c r="F14" s="176">
+      <c r="F14" s="174">
         <v>0.1</v>
       </c>
-      <c r="G14" s="176">
+      <c r="G14" s="174">
         <v>1</v>
       </c>
       <c r="H14" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="181"/>
-      <c r="J14" s="182">
+      <c r="I14" s="179"/>
+      <c r="J14" s="180">
         <v>5</v>
       </c>
-      <c r="K14" s="183"/>
-      <c r="L14" s="184" t="s">
+      <c r="K14" s="181"/>
+      <c r="L14" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="M14" s="181" t="s">
+      <c r="M14" s="179" t="s">
         <v>119</v>
       </c>
       <c r="N14" s="42"/>
@@ -16859,7 +17596,7 @@
       <c r="F38" s="145">
         <v>1</v>
       </c>
-      <c r="G38" s="179">
+      <c r="G38" s="177">
         <v>1</v>
       </c>
       <c r="H38" s="8" t="s">
@@ -17019,7 +17756,7 @@
       <c r="F42" s="145">
         <v>1</v>
       </c>
-      <c r="G42" s="179">
+      <c r="G42" s="177">
         <v>1</v>
       </c>
       <c r="H42" s="8" t="s">
@@ -17059,7 +17796,7 @@
       <c r="F43" s="145">
         <v>0</v>
       </c>
-      <c r="G43" s="179">
+      <c r="G43" s="177">
         <v>0</v>
       </c>
       <c r="H43" s="8" t="s">
@@ -17099,7 +17836,7 @@
       <c r="F44" s="145">
         <v>0.45</v>
       </c>
-      <c r="G44" s="179">
+      <c r="G44" s="177">
         <v>1</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -17139,7 +17876,7 @@
       <c r="F45" s="145">
         <v>1</v>
       </c>
-      <c r="G45" s="179">
+      <c r="G45" s="177">
         <v>1</v>
       </c>
       <c r="H45" s="8" t="s">
@@ -17179,7 +17916,7 @@
       <c r="F46" s="145">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G46" s="179">
+      <c r="G46" s="177">
         <v>1</v>
       </c>
       <c r="H46" s="8" t="s">
@@ -17219,7 +17956,7 @@
       <c r="F47" s="145">
         <v>0.53</v>
       </c>
-      <c r="G47" s="179">
+      <c r="G47" s="177">
         <v>1</v>
       </c>
       <c r="H47" s="8" t="s">
@@ -17239,6 +17976,44 @@
         <v>119</v>
       </c>
       <c r="N47" s="42"/>
+    </row>
+    <row r="48" spans="1:14" ht="18.75">
+      <c r="A48" t="s">
+        <v>591</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="21">
+        <v>6</v>
+      </c>
+      <c r="E48" s="19">
+        <v>189.48</v>
+      </c>
+      <c r="F48" s="19">
+        <v>0</v>
+      </c>
+      <c r="G48" s="19">
+        <v>0.33</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J48" s="19">
+        <v>15</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:M48">
@@ -17249,7 +18024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O148"/>
   <sheetViews>
@@ -22630,13 +23405,13 @@
       <c r="D142" s="56">
         <v>15.5</v>
       </c>
-      <c r="E142" s="166">
+      <c r="E142" s="164">
         <v>367.318307</v>
       </c>
-      <c r="F142" s="167">
+      <c r="F142" s="165">
         <v>0</v>
       </c>
-      <c r="G142" s="167">
+      <c r="G142" s="165">
         <v>0</v>
       </c>
       <c r="H142" s="56" t="s">
@@ -22658,10 +23433,10 @@
     </row>
     <row r="143" spans="1:14" ht="39.6" customHeight="1">
       <c r="A143" s="56" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B143" s="56" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>57</v>
@@ -22669,13 +23444,13 @@
       <c r="D143" s="56">
         <v>1</v>
       </c>
-      <c r="E143" s="166">
+      <c r="E143" s="164">
         <v>156.62</v>
       </c>
-      <c r="F143" s="167">
+      <c r="F143" s="165">
         <v>0</v>
       </c>
-      <c r="G143" s="167">
+      <c r="G143" s="165">
         <v>1</v>
       </c>
       <c r="H143" s="8" t="s">
@@ -22698,10 +23473,10 @@
     </row>
     <row r="144" spans="1:14" ht="35.450000000000003" customHeight="1">
       <c r="A144" s="56" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B144" s="56" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>57</v>
@@ -22709,13 +23484,13 @@
       <c r="D144" s="56">
         <v>1</v>
       </c>
-      <c r="E144" s="166">
+      <c r="E144" s="164">
         <v>148</v>
       </c>
-      <c r="F144" s="167">
+      <c r="F144" s="165">
         <v>0</v>
       </c>
-      <c r="G144" s="167">
+      <c r="G144" s="165">
         <v>1</v>
       </c>
       <c r="H144" s="8" t="s">
@@ -22738,10 +23513,10 @@
     </row>
     <row r="145" spans="1:14" ht="22.9" customHeight="1">
       <c r="A145" s="56" t="s">
+        <v>565</v>
+      </c>
+      <c r="B145" s="8" t="s">
         <v>566</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>567</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>57</v>
@@ -22749,13 +23524,13 @@
       <c r="D145" s="56">
         <v>1</v>
       </c>
-      <c r="E145" s="166">
+      <c r="E145" s="164">
         <v>41.88</v>
       </c>
-      <c r="F145" s="167">
+      <c r="F145" s="165">
         <v>0</v>
       </c>
-      <c r="G145" s="167">
+      <c r="G145" s="165">
         <v>1</v>
       </c>
       <c r="H145" s="8" t="s">
@@ -22778,10 +23553,10 @@
     </row>
     <row r="146" spans="1:14" ht="22.9" customHeight="1">
       <c r="A146" s="56" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>57</v>
@@ -22789,13 +23564,13 @@
       <c r="D146" s="8">
         <v>1</v>
       </c>
-      <c r="E146" s="166">
+      <c r="E146" s="164">
         <v>140.87</v>
       </c>
-      <c r="F146" s="167">
+      <c r="F146" s="165">
         <v>0</v>
       </c>
-      <c r="G146" s="167">
+      <c r="G146" s="165">
         <v>1</v>
       </c>
       <c r="H146" s="8" t="s">
@@ -22818,10 +23593,10 @@
     </row>
     <row r="147" spans="1:14" ht="22.9" customHeight="1">
       <c r="A147" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>57</v>
@@ -22857,7 +23632,7 @@
       <c r="N147" s="16"/>
     </row>
     <row r="148" spans="1:14" ht="14.45" customHeight="1">
-      <c r="B148" s="168"/>
+      <c r="B148" s="166"/>
     </row>
   </sheetData>
   <sortState ref="A2:M142">
@@ -22875,7 +23650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
@@ -24741,13 +25516,13 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1">
-      <c r="A43" s="186" t="s">
+      <c r="A43" s="184" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="187"/>
-      <c r="C43" s="187"/>
-      <c r="D43" s="187"/>
-      <c r="E43" s="188"/>
+      <c r="B43" s="185"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="185"/>
+      <c r="E43" s="186"/>
       <c r="F43" s="9">
         <f>SUM(F2:F42)</f>
         <v>7378.322949676779</v>
@@ -24782,7 +25557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
@@ -24867,10 +25642,10 @@
       <c r="E2" s="9">
         <v>1132.4847496803</v>
       </c>
-      <c r="F2" s="171">
+      <c r="F2" s="169">
         <v>0.85</v>
       </c>
-      <c r="G2" s="171">
+      <c r="G2" s="169">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -24906,10 +25681,10 @@
       <c r="E3" s="14">
         <v>212.86</v>
       </c>
-      <c r="F3" s="172">
+      <c r="F3" s="170">
         <v>0.85</v>
       </c>
-      <c r="G3" s="172">
+      <c r="G3" s="170">
         <v>1</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -24945,10 +25720,10 @@
       <c r="E4" s="9">
         <v>68.311339590000003</v>
       </c>
-      <c r="F4" s="171">
+      <c r="F4" s="169">
         <v>0</v>
       </c>
-      <c r="G4" s="171">
+      <c r="G4" s="169">
         <v>1</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -24984,10 +25759,10 @@
       <c r="E5" s="9">
         <v>107.2236656</v>
       </c>
-      <c r="F5" s="171">
+      <c r="F5" s="169">
         <v>0.23</v>
       </c>
-      <c r="G5" s="171">
+      <c r="G5" s="169">
         <v>1</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -25023,10 +25798,10 @@
       <c r="E6" s="9">
         <v>215.68431884647907</v>
       </c>
-      <c r="F6" s="171">
-        <v>1</v>
-      </c>
-      <c r="G6" s="171">
+      <c r="F6" s="169">
+        <v>1</v>
+      </c>
+      <c r="G6" s="169">
         <v>1</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -25062,10 +25837,10 @@
       <c r="E7" s="9">
         <v>106.6825267</v>
       </c>
-      <c r="F7" s="171">
-        <v>1</v>
-      </c>
-      <c r="G7" s="171">
+      <c r="F7" s="169">
+        <v>1</v>
+      </c>
+      <c r="G7" s="169">
         <v>1</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -25101,10 +25876,10 @@
       <c r="E8" s="9">
         <v>112.01917659999999</v>
       </c>
-      <c r="F8" s="171">
-        <v>1</v>
-      </c>
-      <c r="G8" s="171">
+      <c r="F8" s="169">
+        <v>1</v>
+      </c>
+      <c r="G8" s="169">
         <v>1</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -25142,10 +25917,10 @@
       <c r="E9" s="9">
         <v>57.684434760000002</v>
       </c>
-      <c r="F9" s="171">
-        <v>1</v>
-      </c>
-      <c r="G9" s="171">
+      <c r="F9" s="169">
+        <v>1</v>
+      </c>
+      <c r="G9" s="169">
         <v>1</v>
       </c>
       <c r="H9" s="10" t="s">
@@ -25183,10 +25958,10 @@
       <c r="E10" s="9">
         <v>48.574001809999999</v>
       </c>
-      <c r="F10" s="171">
-        <v>1</v>
-      </c>
-      <c r="G10" s="171">
+      <c r="F10" s="169">
+        <v>1</v>
+      </c>
+      <c r="G10" s="169">
         <v>1</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -25224,10 +25999,10 @@
       <c r="E11" s="9">
         <v>102.82893199999999</v>
       </c>
-      <c r="F11" s="171">
+      <c r="F11" s="169">
         <v>0.5</v>
       </c>
-      <c r="G11" s="171">
+      <c r="G11" s="169">
         <v>1</v>
       </c>
       <c r="H11" s="10" t="s">
@@ -25265,10 +26040,10 @@
       <c r="E12" s="9">
         <v>37.926277570000003</v>
       </c>
-      <c r="F12" s="171">
+      <c r="F12" s="169">
         <v>0</v>
       </c>
-      <c r="G12" s="171">
+      <c r="G12" s="169">
         <v>0</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -25306,10 +26081,10 @@
       <c r="E13" s="9">
         <v>91.955522869999996</v>
       </c>
-      <c r="F13" s="171">
+      <c r="F13" s="169">
         <v>0.4</v>
       </c>
-      <c r="G13" s="171">
+      <c r="G13" s="169">
         <v>1</v>
       </c>
       <c r="H13" s="10" t="s">
@@ -25347,10 +26122,10 @@
       <c r="E14" s="9">
         <v>450.21</v>
       </c>
-      <c r="F14" s="171">
-        <v>1</v>
-      </c>
-      <c r="G14" s="171">
+      <c r="F14" s="169">
+        <v>1</v>
+      </c>
+      <c r="G14" s="169">
         <v>1</v>
       </c>
       <c r="H14" s="10" t="s">
@@ -25388,10 +26163,10 @@
       <c r="E15" s="9">
         <v>29.21</v>
       </c>
-      <c r="F15" s="171">
-        <v>1</v>
-      </c>
-      <c r="G15" s="171">
+      <c r="F15" s="169">
+        <v>1</v>
+      </c>
+      <c r="G15" s="169">
         <v>1</v>
       </c>
       <c r="H15" s="10" t="s">
@@ -25429,10 +26204,10 @@
       <c r="E16" s="9">
         <v>389.57</v>
       </c>
-      <c r="F16" s="171">
+      <c r="F16" s="169">
         <v>0.95</v>
       </c>
-      <c r="G16" s="171">
+      <c r="G16" s="169">
         <v>1</v>
       </c>
       <c r="H16" s="10" t="s">
@@ -25470,10 +26245,10 @@
       <c r="E17" s="9">
         <v>335.3397243</v>
       </c>
-      <c r="F17" s="171">
+      <c r="F17" s="169">
         <v>0.78</v>
       </c>
-      <c r="G17" s="171">
+      <c r="G17" s="169">
         <v>1</v>
       </c>
       <c r="H17" s="10" t="s">
@@ -25511,10 +26286,10 @@
       <c r="E18" s="9">
         <v>158.05900270000001</v>
       </c>
-      <c r="F18" s="171">
-        <v>1</v>
-      </c>
-      <c r="G18" s="171">
+      <c r="F18" s="169">
+        <v>1</v>
+      </c>
+      <c r="G18" s="169">
         <v>1</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -25552,10 +26327,10 @@
       <c r="E19" s="9">
         <v>16.063565189999998</v>
       </c>
-      <c r="F19" s="171">
+      <c r="F19" s="169">
         <v>0</v>
       </c>
-      <c r="G19" s="171">
+      <c r="G19" s="169">
         <v>0</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -25593,10 +26368,10 @@
       <c r="E20" s="9">
         <v>282.4936586</v>
       </c>
-      <c r="F20" s="171">
-        <v>1</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="169">
+        <v>1</v>
+      </c>
+      <c r="G20" s="169">
         <v>1</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -25634,10 +26409,10 @@
       <c r="E21" s="9">
         <v>313.34954199999999</v>
       </c>
-      <c r="F21" s="171">
-        <v>1</v>
-      </c>
-      <c r="G21" s="171">
+      <c r="F21" s="169">
+        <v>1</v>
+      </c>
+      <c r="G21" s="169">
         <v>1</v>
       </c>
       <c r="H21" s="10" t="s">
@@ -25675,10 +26450,10 @@
       <c r="E22" s="9">
         <v>395.62</v>
       </c>
-      <c r="F22" s="171">
+      <c r="F22" s="169">
         <v>0.82</v>
       </c>
-      <c r="G22" s="171">
+      <c r="G22" s="169">
         <v>1</v>
       </c>
       <c r="H22" s="10" t="s">
@@ -25716,10 +26491,10 @@
       <c r="E23" s="9">
         <v>57.25</v>
       </c>
-      <c r="F23" s="171">
+      <c r="F23" s="169">
         <v>0</v>
       </c>
-      <c r="G23" s="171">
+      <c r="G23" s="169">
         <v>1</v>
       </c>
       <c r="H23" s="10" t="s">
@@ -25757,10 +26532,10 @@
       <c r="E24" s="9">
         <v>242.75</v>
       </c>
-      <c r="F24" s="171">
+      <c r="F24" s="169">
         <v>0.6</v>
       </c>
-      <c r="G24" s="171">
+      <c r="G24" s="169">
         <v>1</v>
       </c>
       <c r="H24" s="10" t="s">
@@ -25798,10 +26573,10 @@
       <c r="E25" s="9">
         <v>286.86</v>
       </c>
-      <c r="F25" s="171">
+      <c r="F25" s="169">
         <v>0.85</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="169">
         <v>1</v>
       </c>
       <c r="H25" s="10" t="s">
@@ -25839,10 +26614,10 @@
       <c r="E26" s="9">
         <v>182.66</v>
       </c>
-      <c r="F26" s="171">
+      <c r="F26" s="169">
         <v>0.85</v>
       </c>
-      <c r="G26" s="171">
+      <c r="G26" s="169">
         <v>1</v>
       </c>
       <c r="H26" s="10" t="s">
@@ -25880,10 +26655,10 @@
       <c r="E27" s="9">
         <v>419.66</v>
       </c>
-      <c r="F27" s="171">
+      <c r="F27" s="169">
         <v>0.6</v>
       </c>
-      <c r="G27" s="171">
+      <c r="G27" s="169">
         <v>1</v>
       </c>
       <c r="H27" s="10" t="s">
@@ -25921,10 +26696,10 @@
       <c r="E28" s="9">
         <v>224.4495987</v>
       </c>
-      <c r="F28" s="171">
-        <v>1</v>
-      </c>
-      <c r="G28" s="171">
+      <c r="F28" s="169">
+        <v>1</v>
+      </c>
+      <c r="G28" s="169">
         <v>1.1000000000000001</v>
       </c>
       <c r="H28" s="10" t="s">
@@ -25962,10 +26737,10 @@
       <c r="E29" s="9">
         <v>118.7745324</v>
       </c>
-      <c r="F29" s="171">
-        <v>1</v>
-      </c>
-      <c r="G29" s="171">
+      <c r="F29" s="169">
+        <v>1</v>
+      </c>
+      <c r="G29" s="169">
         <v>1</v>
       </c>
       <c r="H29" s="10" t="s">
@@ -26003,10 +26778,10 @@
       <c r="E30" s="9">
         <v>88.151549259999996</v>
       </c>
-      <c r="F30" s="171">
-        <v>1</v>
-      </c>
-      <c r="G30" s="171">
+      <c r="F30" s="169">
+        <v>1</v>
+      </c>
+      <c r="G30" s="169">
         <v>1</v>
       </c>
       <c r="H30" s="10" t="s">
@@ -26044,10 +26819,10 @@
       <c r="E31" s="9">
         <v>51.057474249999999</v>
       </c>
-      <c r="F31" s="171">
-        <v>1</v>
-      </c>
-      <c r="G31" s="171">
+      <c r="F31" s="169">
+        <v>1</v>
+      </c>
+      <c r="G31" s="169">
         <v>1</v>
       </c>
       <c r="H31" s="10" t="s">
@@ -26085,10 +26860,10 @@
       <c r="E32" s="9">
         <v>28.037593059999999</v>
       </c>
-      <c r="F32" s="171">
+      <c r="F32" s="169">
         <v>0</v>
       </c>
-      <c r="G32" s="171">
+      <c r="G32" s="169">
         <v>0</v>
       </c>
       <c r="H32" s="10" t="s">
@@ -26126,10 +26901,10 @@
       <c r="E33" s="9">
         <v>42.25</v>
       </c>
-      <c r="F33" s="171">
-        <v>1</v>
-      </c>
-      <c r="G33" s="171">
+      <c r="F33" s="169">
+        <v>1</v>
+      </c>
+      <c r="G33" s="169">
         <v>1</v>
       </c>
       <c r="H33" s="10" t="s">
@@ -26167,10 +26942,10 @@
       <c r="E34" s="9">
         <v>42.25</v>
       </c>
-      <c r="F34" s="171">
-        <v>1</v>
-      </c>
-      <c r="G34" s="171">
+      <c r="F34" s="169">
+        <v>1</v>
+      </c>
+      <c r="G34" s="169">
         <v>1</v>
       </c>
       <c r="H34" s="10" t="s">
@@ -26208,10 +26983,10 @@
       <c r="E35" s="9">
         <v>16.920000000000002</v>
       </c>
-      <c r="F35" s="171">
+      <c r="F35" s="169">
         <v>0</v>
       </c>
-      <c r="G35" s="171">
+      <c r="G35" s="169">
         <v>0</v>
       </c>
       <c r="H35" s="10" t="s">
@@ -26249,10 +27024,10 @@
       <c r="E36" s="9">
         <v>19.43</v>
       </c>
-      <c r="F36" s="171">
-        <v>1</v>
-      </c>
-      <c r="G36" s="171">
+      <c r="F36" s="169">
+        <v>1</v>
+      </c>
+      <c r="G36" s="169">
         <v>1</v>
       </c>
       <c r="H36" s="10" t="s">
@@ -26290,10 +27065,10 @@
       <c r="E37" s="9">
         <v>654.80263279999997</v>
       </c>
-      <c r="F37" s="171">
-        <v>1</v>
-      </c>
-      <c r="G37" s="171">
+      <c r="F37" s="169">
+        <v>1</v>
+      </c>
+      <c r="G37" s="169">
         <v>1</v>
       </c>
       <c r="H37" s="10" t="s">
@@ -26331,10 +27106,10 @@
       <c r="E38" s="9">
         <v>238.87413699999999</v>
       </c>
-      <c r="F38" s="171">
-        <v>1</v>
-      </c>
-      <c r="G38" s="171">
+      <c r="F38" s="169">
+        <v>1</v>
+      </c>
+      <c r="G38" s="169">
         <v>0</v>
       </c>
       <c r="H38" s="10" t="s">
@@ -26358,10 +27133,10 @@
     </row>
     <row r="39" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
       <c r="A39" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>37</v>
@@ -26372,14 +27147,14 @@
       <c r="E39" s="9">
         <v>289.74</v>
       </c>
-      <c r="F39" s="171">
+      <c r="F39" s="169">
         <v>0.6</v>
       </c>
-      <c r="G39" s="171">
+      <c r="G39" s="169">
         <v>1</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>54</v>
@@ -26399,10 +27174,10 @@
     </row>
     <row r="40" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
       <c r="A40" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>572</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>37</v>
@@ -26413,14 +27188,14 @@
       <c r="E40" s="9">
         <v>239.88</v>
       </c>
-      <c r="F40" s="171">
+      <c r="F40" s="169">
         <v>0.25</v>
       </c>
-      <c r="G40" s="171">
+      <c r="G40" s="169">
         <v>1</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>54</v>
@@ -26440,10 +27215,10 @@
     </row>
     <row r="41" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
       <c r="A41" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>37</v>
@@ -26454,14 +27229,14 @@
       <c r="E41" s="9">
         <v>62.22</v>
       </c>
-      <c r="F41" s="171">
+      <c r="F41" s="169">
         <v>0</v>
       </c>
-      <c r="G41" s="171">
+      <c r="G41" s="169">
         <v>1</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>54</v>
@@ -26481,10 +27256,10 @@
     </row>
     <row r="42" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
       <c r="A42" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>37</v>
@@ -26495,14 +27270,14 @@
       <c r="E42" s="9">
         <v>62.22</v>
       </c>
-      <c r="F42" s="171">
+      <c r="F42" s="169">
         <v>0</v>
       </c>
-      <c r="G42" s="171">
+      <c r="G42" s="169">
         <v>1</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>54</v>
@@ -26522,10 +27297,10 @@
     </row>
     <row r="43" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
       <c r="A43" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>37</v>
@@ -26536,14 +27311,14 @@
       <c r="E43" s="9">
         <v>62.22</v>
       </c>
-      <c r="F43" s="171">
+      <c r="F43" s="169">
         <v>0</v>
       </c>
-      <c r="G43" s="171">
+      <c r="G43" s="169">
         <v>1</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>54</v>
@@ -26563,10 +27338,10 @@
     </row>
     <row r="44" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
       <c r="A44" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>37</v>
@@ -26577,14 +27352,14 @@
       <c r="E44" s="9">
         <v>62.22</v>
       </c>
-      <c r="F44" s="171">
+      <c r="F44" s="169">
         <v>0</v>
       </c>
-      <c r="G44" s="171">
+      <c r="G44" s="169">
         <v>1</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>54</v>
@@ -26604,10 +27379,10 @@
     </row>
     <row r="45" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
       <c r="A45" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>37</v>
@@ -26618,14 +27393,14 @@
       <c r="E45" s="9">
         <v>62.22</v>
       </c>
-      <c r="F45" s="171">
+      <c r="F45" s="169">
         <v>0</v>
       </c>
-      <c r="G45" s="171">
+      <c r="G45" s="169">
         <v>1</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>54</v>
@@ -26645,10 +27420,10 @@
     </row>
     <row r="46" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
       <c r="A46" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C46" s="145" t="s">
         <v>37</v>
@@ -26659,14 +27434,14 @@
       <c r="E46" s="9">
         <v>12.18</v>
       </c>
-      <c r="F46" s="171">
+      <c r="F46" s="169">
         <v>0</v>
       </c>
-      <c r="G46" s="171">
+      <c r="G46" s="169">
         <v>1</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>54</v>
@@ -26686,10 +27461,10 @@
     </row>
     <row r="47" spans="1:15" s="13" customFormat="1" ht="57.75" customHeight="1">
       <c r="A47" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C47" s="145" t="s">
         <v>37</v>
@@ -26700,14 +27475,14 @@
       <c r="E47" s="9">
         <v>12.18</v>
       </c>
-      <c r="F47" s="171">
+      <c r="F47" s="169">
         <v>0</v>
       </c>
-      <c r="G47" s="171">
+      <c r="G47" s="169">
         <v>1</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>54</v>
@@ -26727,10 +27502,10 @@
     </row>
     <row r="48" spans="1:15" ht="54.75" customHeight="1">
       <c r="A48" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C48" s="145" t="s">
         <v>37</v>
@@ -26741,14 +27516,14 @@
       <c r="E48" s="9">
         <v>12.18</v>
       </c>
-      <c r="F48" s="171">
+      <c r="F48" s="169">
         <v>0</v>
       </c>
-      <c r="G48" s="171">
+      <c r="G48" s="169">
         <v>1</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>54</v>
@@ -26756,7 +27531,7 @@
       <c r="J48" s="10">
         <v>1</v>
       </c>
-      <c r="K48" s="173"/>
+      <c r="K48" s="171"/>
       <c r="L48" s="12" t="s">
         <v>277</v>
       </c>
@@ -26775,7 +27550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
@@ -27496,10 +28271,10 @@
       <c r="E18" s="145">
         <v>182.28597360000001</v>
       </c>
-      <c r="F18" s="174">
+      <c r="F18" s="172">
         <v>0.27</v>
       </c>
-      <c r="G18" s="174">
+      <c r="G18" s="172">
         <v>0.67</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -27536,10 +28311,10 @@
       <c r="E19" s="145">
         <v>182.28597360000001</v>
       </c>
-      <c r="F19" s="174">
+      <c r="F19" s="172">
         <v>0.27</v>
       </c>
-      <c r="G19" s="174">
+      <c r="G19" s="172">
         <v>0.67</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -27576,10 +28351,10 @@
       <c r="E20" s="145">
         <v>182.28597360000001</v>
       </c>
-      <c r="F20" s="174">
+      <c r="F20" s="172">
         <v>0.27</v>
       </c>
-      <c r="G20" s="174">
+      <c r="G20" s="172">
         <v>0.67</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -27616,10 +28391,10 @@
       <c r="E21" s="145">
         <v>182.28597360000001</v>
       </c>
-      <c r="F21" s="174">
+      <c r="F21" s="172">
         <v>0.27</v>
       </c>
-      <c r="G21" s="174">
+      <c r="G21" s="172">
         <v>0.67</v>
       </c>
       <c r="H21" s="10" t="s">
@@ -27656,10 +28431,10 @@
       <c r="E22" s="145">
         <v>182.28597360000001</v>
       </c>
-      <c r="F22" s="174">
+      <c r="F22" s="172">
         <v>0.27</v>
       </c>
-      <c r="G22" s="174">
+      <c r="G22" s="172">
         <v>0.67</v>
       </c>
       <c r="H22" s="10" t="s">
@@ -27696,10 +28471,10 @@
       <c r="E23" s="145">
         <v>279.35073799999998</v>
       </c>
-      <c r="F23" s="174">
+      <c r="F23" s="172">
         <v>0.27</v>
       </c>
-      <c r="G23" s="174">
+      <c r="G23" s="172">
         <v>0.67</v>
       </c>
       <c r="H23" s="10" t="s">
@@ -28739,687 +29514,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" fitToHeight="10" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
-  <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="150" t="s">
-        <v>531</v>
-      </c>
-      <c r="B1" s="150" t="s">
-        <v>532</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="150">
-        <v>1</v>
-      </c>
-      <c r="B2" s="159" t="s">
-        <v>528</v>
-      </c>
-      <c r="C2" s="44">
-        <v>51.09</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="150">
-        <v>2</v>
-      </c>
-      <c r="B3" s="159" t="s">
-        <v>501</v>
-      </c>
-      <c r="C3" s="44">
-        <v>347.71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="150">
-        <v>3</v>
-      </c>
-      <c r="B4" s="159" t="s">
-        <v>492</v>
-      </c>
-      <c r="C4" s="44">
-        <v>625.92999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="150">
-        <v>4</v>
-      </c>
-      <c r="B5" s="159" t="s">
-        <v>486</v>
-      </c>
-      <c r="C5" s="44">
-        <v>714.69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="150">
-        <v>5</v>
-      </c>
-      <c r="B6" s="159" t="s">
-        <v>483</v>
-      </c>
-      <c r="C6" s="44">
-        <v>575.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="150">
-        <v>6</v>
-      </c>
-      <c r="B7" s="159" t="s">
-        <v>474</v>
-      </c>
-      <c r="C7" s="44">
-        <v>837.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="44">
-        <v>7</v>
-      </c>
-      <c r="B8" s="161" t="s">
-        <v>463</v>
-      </c>
-      <c r="C8" s="160">
-        <v>565.07000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="150">
-        <v>8</v>
-      </c>
-      <c r="B9" s="159" t="s">
-        <v>533</v>
-      </c>
-      <c r="C9" s="150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="44">
-        <v>9</v>
-      </c>
-      <c r="B10" s="161" t="s">
-        <v>444</v>
-      </c>
-      <c r="C10" s="160">
-        <v>712.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="44">
-        <v>10</v>
-      </c>
-      <c r="B11" s="161" t="s">
-        <v>434</v>
-      </c>
-      <c r="C11" s="44">
-        <v>409.68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="44">
-        <v>11</v>
-      </c>
-      <c r="B12" s="161" t="s">
-        <v>431</v>
-      </c>
-      <c r="C12" s="44">
-        <v>522.86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="150">
-        <v>12</v>
-      </c>
-      <c r="B13" s="159" t="s">
-        <v>424</v>
-      </c>
-      <c r="C13" s="44">
-        <v>705.59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="44">
-        <v>13</v>
-      </c>
-      <c r="B14" s="161" t="s">
-        <v>453</v>
-      </c>
-      <c r="C14" s="162">
-        <v>647.20000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="44">
-        <v>14</v>
-      </c>
-      <c r="B15" s="161" t="s">
-        <v>450</v>
-      </c>
-      <c r="C15" s="44">
-        <v>806.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="44">
-        <v>15</v>
-      </c>
-      <c r="B16" s="161" t="s">
-        <v>445</v>
-      </c>
-      <c r="C16" s="44">
-        <v>333.94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="44">
-        <v>16</v>
-      </c>
-      <c r="B17" s="161" t="s">
-        <v>428</v>
-      </c>
-      <c r="C17" s="44">
-        <v>721.62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="44">
-        <v>17</v>
-      </c>
-      <c r="B18" s="161" t="s">
-        <v>409</v>
-      </c>
-      <c r="C18" s="160">
-        <v>1451.95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="150">
-        <v>18</v>
-      </c>
-      <c r="B19" s="159" t="s">
-        <v>505</v>
-      </c>
-      <c r="C19" s="44">
-        <v>711.02</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="44">
-        <v>19</v>
-      </c>
-      <c r="B20" s="161" t="s">
-        <v>415</v>
-      </c>
-      <c r="C20" s="160">
-        <v>331.35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="150">
-        <v>20</v>
-      </c>
-      <c r="B21" s="159" t="s">
-        <v>388</v>
-      </c>
-      <c r="C21" s="44">
-        <v>501.12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="150">
-        <v>21</v>
-      </c>
-      <c r="B22" s="159" t="s">
-        <v>520</v>
-      </c>
-      <c r="C22" s="44">
-        <v>268.24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="44">
-        <v>22</v>
-      </c>
-      <c r="B23" s="161" t="s">
-        <v>402</v>
-      </c>
-      <c r="C23" s="44">
-        <v>281.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="150">
-        <v>23</v>
-      </c>
-      <c r="B24" s="159" t="s">
-        <v>356</v>
-      </c>
-      <c r="C24" s="163">
-        <v>720.33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="44">
-        <v>24</v>
-      </c>
-      <c r="B25" s="161" t="s">
-        <v>362</v>
-      </c>
-      <c r="C25" s="160">
-        <v>890.42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="44">
-        <v>25</v>
-      </c>
-      <c r="B26" s="161" t="s">
-        <v>375</v>
-      </c>
-      <c r="C26" s="44">
-        <v>749.37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="150">
-        <v>26</v>
-      </c>
-      <c r="B27" s="159" t="s">
-        <v>368</v>
-      </c>
-      <c r="C27" s="44">
-        <v>501.12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="44">
-        <v>27</v>
-      </c>
-      <c r="B28" s="161" t="s">
-        <v>534</v>
-      </c>
-      <c r="C28" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="150">
-        <v>28</v>
-      </c>
-      <c r="B29" s="159" t="s">
-        <v>535</v>
-      </c>
-      <c r="C29" s="150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="150">
-        <v>29</v>
-      </c>
-      <c r="B30" s="159" t="s">
-        <v>536</v>
-      </c>
-      <c r="C30" s="150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="150">
-        <v>30</v>
-      </c>
-      <c r="B31" s="159" t="s">
-        <v>537</v>
-      </c>
-      <c r="C31" s="150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="150">
-        <v>31</v>
-      </c>
-      <c r="B32" s="159" t="s">
-        <v>538</v>
-      </c>
-      <c r="C32" s="150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="150">
-        <v>32</v>
-      </c>
-      <c r="B33" s="159" t="s">
-        <v>539</v>
-      </c>
-      <c r="C33" s="150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="150">
-        <v>33</v>
-      </c>
-      <c r="B34" s="159" t="s">
-        <v>540</v>
-      </c>
-      <c r="C34" s="150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="150">
-        <v>34</v>
-      </c>
-      <c r="B35" s="159" t="s">
-        <v>541</v>
-      </c>
-      <c r="C35" s="150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="150">
-        <v>35</v>
-      </c>
-      <c r="B36" s="159" t="s">
-        <v>542</v>
-      </c>
-      <c r="C36" s="150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="150">
-        <v>36</v>
-      </c>
-      <c r="B37" s="159" t="s">
-        <v>543</v>
-      </c>
-      <c r="C37" s="150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="150">
-        <v>37</v>
-      </c>
-      <c r="B38" s="159" t="s">
-        <v>544</v>
-      </c>
-      <c r="C38" s="150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="150">
-        <v>38</v>
-      </c>
-      <c r="B39" s="159" t="s">
-        <v>545</v>
-      </c>
-      <c r="C39" s="150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="169">
-        <v>39</v>
-      </c>
-      <c r="B40" s="150" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="44">
-        <v>817.97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="150">
-        <v>40</v>
-      </c>
-      <c r="B41" s="150" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="44">
-        <v>475.85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="169">
-        <v>41</v>
-      </c>
-      <c r="B42" s="150" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="44">
-        <v>712.73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="150">
-        <v>42</v>
-      </c>
-      <c r="B43" s="150" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="44">
-        <v>844.17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="169">
-        <v>43</v>
-      </c>
-      <c r="B44" s="150" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="44">
-        <v>635.34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="150">
-        <v>44</v>
-      </c>
-      <c r="B45" s="150" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="44">
-        <v>375.82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="169">
-        <v>45</v>
-      </c>
-      <c r="B46" s="150" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="44">
-        <v>567.71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="150">
-        <v>46</v>
-      </c>
-      <c r="B47" s="150" t="s">
-        <v>581</v>
-      </c>
-      <c r="C47" s="44">
-        <v>134.16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="52" customFormat="1">
-      <c r="A48" s="44">
-        <v>47</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="C48" s="44">
-        <v>913.55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="150">
-        <v>48</v>
-      </c>
-      <c r="B49" s="44" t="s">
-        <v>312</v>
-      </c>
-      <c r="C49" s="44">
-        <v>926.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="44">
-        <v>49</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="C50" s="44">
-        <v>511.73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="150">
-        <v>50</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="C51" s="44">
-        <v>1521.41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="44">
-        <v>51</v>
-      </c>
-      <c r="B52" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="C52" s="44">
-        <v>1061.82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="150">
-        <v>52</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="C53" s="44">
-        <v>1268.067</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="44">
-        <v>53</v>
-      </c>
-      <c r="B54" s="44" t="s">
-        <v>582</v>
-      </c>
-      <c r="C54" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="18.75">
-      <c r="A55" s="150">
-        <v>54</v>
-      </c>
-      <c r="B55" s="152" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="44">
-        <v>938.27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="18.75">
-      <c r="A56" s="44">
-        <v>55</v>
-      </c>
-      <c r="B56" s="152" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="44">
-        <v>1079.52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="18.75">
-      <c r="A57" s="44">
-        <v>57</v>
-      </c>
-      <c r="B57" s="152" t="s">
-        <v>179</v>
-      </c>
-      <c r="C57" s="44">
-        <v>655.94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="18.75">
-      <c r="A58" s="150">
-        <v>58</v>
-      </c>
-      <c r="B58" s="152" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" s="44">
-        <v>307.8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="18.75">
-      <c r="A59" s="44">
-        <v>59</v>
-      </c>
-      <c r="B59" s="152" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="44">
-        <v>1094.31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="18.75">
-      <c r="A60" s="150">
-        <v>60</v>
-      </c>
-      <c r="B60" s="152" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" s="185">
-        <v>667.67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31274,12 +31368,12 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A43" s="189" t="s">
+      <c r="A43" s="187" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
+      <c r="B43" s="187"/>
+      <c r="C43" s="187"/>
+      <c r="D43" s="187"/>
       <c r="E43" s="16"/>
       <c r="F43" s="122">
         <f>SUM(F2:F42)</f>

--- a/Civilworks cost/RADP Preparations/Hoboganj/Revised with appendix/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Hoboganj/Revised with appendix/Projecttion_input.xlsx
@@ -2175,7 +2175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2685,6 +2685,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16076,8 +16079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C43" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16089,7 +16092,7 @@
     <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" style="19" customWidth="1"/>
     <col min="7" max="7" width="38.7109375" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="20" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="19" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="19" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" style="20" customWidth="1"/>
@@ -17978,36 +17981,37 @@
       <c r="N47" s="42"/>
     </row>
     <row r="48" spans="1:14" ht="18.75">
-      <c r="A48" t="s">
+      <c r="A48" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="188">
         <v>6</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="18">
         <v>189.48</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="18">
         <v>0</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="18">
         <v>0.33</v>
       </c>
-      <c r="H48" s="20" t="s">
+      <c r="H48" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="I48" s="20" t="s">
+      <c r="I48" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J48" s="18">
         <v>15</v>
       </c>
+      <c r="K48" s="18"/>
       <c r="L48" s="12" t="s">
         <v>140</v>
       </c>
